--- a/3 course/Летняя практика/Ссылки.xlsx
+++ b/3 course/Летняя практика/Ссылки.xlsx
@@ -1,13 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE26BC23-0808-4C49-8478-B1C0FDCB8B79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Название ресурса</t>
   </si>
@@ -58,12 +62,66 @@
   </si>
   <si>
     <t>http://osscom2016.osscom.org/sites/default/files/files/8.pdf</t>
+  </si>
+  <si>
+    <t>https://raccoongang.com/blog/open-edx-what-it-and-why-19-million-people-use-it/</t>
+  </si>
+  <si>
+    <t>Open edX: What Is It And Why 19 Million People Use It?</t>
+  </si>
+  <si>
+    <t>Adobe Captivate Prime</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>https://github.com/adlnet/xAPI-Spec/blob/master/xAPI-About.md#partone</t>
+  </si>
+  <si>
+    <t>Moodle</t>
+  </si>
+  <si>
+    <t>Название статьи</t>
+  </si>
+  <si>
+    <t>OpenEdx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Название </t>
+  </si>
+  <si>
+    <t>ссылка</t>
+  </si>
+  <si>
+    <t>Общая информация</t>
+  </si>
+  <si>
+    <t>https://helpx.adobe.com/captivate-prime/integration-admin/feature-summary/developer-manual.html</t>
+  </si>
+  <si>
+    <t>ACP: Development manual</t>
+  </si>
+  <si>
+    <t>https://captivateprime.adobe.com/docs/primeapi/xapi/</t>
+  </si>
+  <si>
+    <t>ACP: API</t>
+  </si>
+  <si>
+    <t>GIT: Adobe Captivate Prime API documentation</t>
+  </si>
+  <si>
+    <t>Adobe Captivate</t>
+  </si>
+  <si>
+    <t>https://www.adobe.com/ru/products/captivate.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,8 +160,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -390,242 +451,248 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="2" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -645,7 +712,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -665,41 +732,956 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="19">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="H9:R9"/>
     <mergeCell ref="H10:R10"/>
-    <mergeCell ref="H11:R11"/>
-    <mergeCell ref="H12:R12"/>
+    <mergeCell ref="A9:G9"/>
     <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="H7:R7"/>
     <mergeCell ref="H8:R8"/>
-    <mergeCell ref="H9:R9"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:G9"/>
     <mergeCell ref="H4:R4"/>
     <mergeCell ref="H5:R5"/>
     <mergeCell ref="H6:R6"/>
-    <mergeCell ref="H7:R7"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:R1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="H2:R2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="H3:R3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
-    <hyperlink ref="H5" r:id="rId4" location=":~:text=Single%20Activity%20Format%20%2D%20The%20single,activity%20they%20wish%20to%20use."/>
-    <hyperlink ref="H6" r:id="rId5"/>
-    <hyperlink ref="H7" r:id="rId6"/>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H6" r:id="rId4" location=":~:text=Single%20Activity%20Format%20%2D%20The%20single,activity%20they%20wish%20to%20use." xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H10" r:id="rId7" xr:uid="{EA1B3766-EBBC-4E40-8B04-F266470BA83D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10680AB7-C6F9-4151-A4BB-A635E3093721}">
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="65">
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="A4:E4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" location="partone" xr:uid="{93A1F49D-1639-4802-9D8C-34089C848D7D}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{3EEBCFF9-788B-4F83-B2B3-A63DE8EA0E3E}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{92AF4903-1E76-4A2E-B038-12CB391E991F}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{CBA41DE8-6B43-4CA8-B5A7-429D7EF5BBDE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFD2827-38AC-4A23-A948-09B01B6FA4F8}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C8FB7C-5DB8-4CE5-BB13-7E58ABBAE9DD}">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q22" sqref="P22:Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>